--- a/default-files/Example_ExcelReference/excel/Main/Localization/english/Y游戏内文字_Strings_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/Main/Localization/english/Y游戏内文字_Strings_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\Main\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DC83F0-DB30-4B9D-B810-59E219200045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8768A8DE-EA2C-4262-9152-A19E0711BE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8087" uniqueCount="7609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8087" uniqueCount="7614">
   <si>
     <t>KEY</t>
   </si>
@@ -22033,51 +22033,18 @@
     <t>A cidade é uma fortaleza impenetrável. Mesmo um rato de um centímetro teria dificuldade em encontrar seu caminho.</t>
   </si>
   <si>
-    <t>Vida Máxima</t>
-  </si>
-  <si>
-    <t>Mana Máxima</t>
-  </si>
-  <si>
-    <t>Espírito</t>
-  </si>
-  <si>
     <t>Estamina</t>
   </si>
   <si>
     <t>Entrar em Estamina quando &gt;=0 e o comportamento pós-interação ≠0</t>
   </si>
   <si>
-    <t>Atq. Físico</t>
-  </si>
-  <si>
-    <t>Atq. Mágico</t>
-  </si>
-  <si>
     <t>Def. Física</t>
   </si>
   <si>
     <t>Def. Mágica</t>
   </si>
   <si>
-    <t>Talento Arcano</t>
-  </si>
-  <si>
-    <t>Alcance de Ataque</t>
-  </si>
-  <si>
-    <t>Regen. de Vida</t>
-  </si>
-  <si>
-    <t>Regen. de Mana</t>
-  </si>
-  <si>
-    <t>Vel. de Ataque</t>
-  </si>
-  <si>
-    <t>Vel. de Movimento</t>
-  </si>
-  <si>
     <t>As alocações de habilidades não foram salvas. Descartar alterações?</t>
   </si>
   <si>
@@ -22127,12 +22094,6 @@
   </si>
   <si>
     <t>A equipe selecionada não atende às condições da joia. Não é possível equipar!</t>
-  </si>
-  <si>
-    <t>Atq. Total</t>
-  </si>
-  <si>
-    <t>Def. Total</t>
   </si>
   <si>
     <t>A durabilidade do esquadrão já está completa!</t>
@@ -22986,6 +22947,60 @@
   </si>
   <si>
     <t>Torneio de {0}</t>
+  </si>
+  <si>
+    <t>Vida Máxima:</t>
+  </si>
+  <si>
+    <t>Mana Máxima:</t>
+  </si>
+  <si>
+    <t>Força:</t>
+  </si>
+  <si>
+    <t>Agilidade:</t>
+  </si>
+  <si>
+    <t>Espírito:</t>
+  </si>
+  <si>
+    <t>Estamina:</t>
+  </si>
+  <si>
+    <t>Atq. Físico:</t>
+  </si>
+  <si>
+    <t>Atq. Mágico:</t>
+  </si>
+  <si>
+    <t>Def. Física:</t>
+  </si>
+  <si>
+    <t>Def. Mágica:</t>
+  </si>
+  <si>
+    <t>Vel. Ataque:</t>
+  </si>
+  <si>
+    <t>Atq. Total:</t>
+  </si>
+  <si>
+    <t>Def. Total:</t>
+  </si>
+  <si>
+    <t>Regen. Vida:</t>
+  </si>
+  <si>
+    <t>Regen. Mana:</t>
+  </si>
+  <si>
+    <t>Nv. Arcano:</t>
+  </si>
+  <si>
+    <t>Vel. Mov.:</t>
+  </si>
+  <si>
+    <t>Atq. Range:</t>
   </si>
 </sst>
 </file>
@@ -23640,8 +23655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1654" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2675" sqref="C2675:C2701"/>
+    <sheetView tabSelected="1" topLeftCell="C2323" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2336" sqref="C2336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40563,7 +40578,7 @@
         <v>3060</v>
       </c>
       <c r="C1541" s="26" t="s">
-        <v>7294</v>
+        <v>7291</v>
       </c>
     </row>
     <row r="1542" spans="1:3">
@@ -46195,7 +46210,7 @@
         <v>4018</v>
       </c>
       <c r="C2053" s="26" t="s">
-        <v>7295</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="2054" spans="1:3">
@@ -49165,7 +49180,7 @@
         <v>4555</v>
       </c>
       <c r="C2323" s="26" t="s">
-        <v>7291</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="2324" spans="1:3">
@@ -49176,7 +49191,7 @@
         <v>4557</v>
       </c>
       <c r="C2324" s="26" t="s">
-        <v>7292</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="2325" spans="1:3">
@@ -49187,7 +49202,7 @@
         <v>4559</v>
       </c>
       <c r="C2325" s="26" t="s">
-        <v>6638</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="2326" spans="1:3">
@@ -49198,7 +49213,7 @@
         <v>4561</v>
       </c>
       <c r="C2326" s="26" t="s">
-        <v>6639</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="2327" spans="1:3">
@@ -49209,7 +49224,7 @@
         <v>4563</v>
       </c>
       <c r="C2327" s="26" t="s">
-        <v>7293</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="2328" spans="1:3">
@@ -49220,7 +49235,7 @@
         <v>4565</v>
       </c>
       <c r="C2328" s="26" t="s">
-        <v>7294</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="2329" spans="1:3">
@@ -49231,7 +49246,7 @@
         <v>4567</v>
       </c>
       <c r="C2329" s="26" t="s">
-        <v>7296</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="2330" spans="1:3">
@@ -49242,7 +49257,7 @@
         <v>4569</v>
       </c>
       <c r="C2330" s="26" t="s">
-        <v>7297</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="2331" spans="1:3">
@@ -49253,7 +49268,7 @@
         <v>4571</v>
       </c>
       <c r="C2331" s="26" t="s">
-        <v>7298</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="2332" spans="1:3">
@@ -49264,7 +49279,7 @@
         <v>4573</v>
       </c>
       <c r="C2332" s="26" t="s">
-        <v>7299</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="2333" spans="1:3">
@@ -49275,7 +49290,7 @@
         <v>4575</v>
       </c>
       <c r="C2333" s="26" t="s">
-        <v>7300</v>
+        <v>7611</v>
       </c>
     </row>
     <row r="2334" spans="1:3">
@@ -49286,7 +49301,7 @@
         <v>4577</v>
       </c>
       <c r="C2334" s="26" t="s">
-        <v>7305</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="2335" spans="1:3">
@@ -49297,7 +49312,7 @@
         <v>4579</v>
       </c>
       <c r="C2335" s="26" t="s">
-        <v>7304</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="2336" spans="1:3">
@@ -49308,7 +49323,7 @@
         <v>4581</v>
       </c>
       <c r="C2336" s="26" t="s">
-        <v>7301</v>
+        <v>7613</v>
       </c>
     </row>
     <row r="2337" spans="1:3">
@@ -49319,7 +49334,7 @@
         <v>4583</v>
       </c>
       <c r="C2337" s="26" t="s">
-        <v>7302</v>
+        <v>7609</v>
       </c>
     </row>
     <row r="2338" spans="1:3">
@@ -49330,7 +49345,7 @@
         <v>4585</v>
       </c>
       <c r="C2338" s="26" t="s">
-        <v>7303</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="2339" spans="1:3">
@@ -49341,7 +49356,7 @@
         <v>4587</v>
       </c>
       <c r="C2339" s="26" t="s">
-        <v>7323</v>
+        <v>7607</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
@@ -49352,7 +49367,7 @@
         <v>4589</v>
       </c>
       <c r="C2340" s="26" t="s">
-        <v>7324</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
@@ -49374,7 +49389,7 @@
         <v>4593</v>
       </c>
       <c r="C2342" s="26" t="s">
-        <v>7306</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
@@ -49396,7 +49411,7 @@
         <v>4597</v>
       </c>
       <c r="C2344" s="26" t="s">
-        <v>7307</v>
+        <v>7296</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
@@ -49407,7 +49422,7 @@
         <v>4599</v>
       </c>
       <c r="C2345" s="26" t="s">
-        <v>7308</v>
+        <v>7297</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
@@ -49418,7 +49433,7 @@
         <v>4601</v>
       </c>
       <c r="C2346" s="26" t="s">
-        <v>7309</v>
+        <v>7298</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
@@ -49429,7 +49444,7 @@
         <v>4603</v>
       </c>
       <c r="C2347" s="26" t="s">
-        <v>7310</v>
+        <v>7299</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
@@ -49440,7 +49455,7 @@
         <v>4605</v>
       </c>
       <c r="C2348" s="26" t="s">
-        <v>7311</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
@@ -49462,7 +49477,7 @@
         <v>4609</v>
       </c>
       <c r="C2350" s="26" t="s">
-        <v>7312</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
@@ -49473,7 +49488,7 @@
         <v>4611</v>
       </c>
       <c r="C2351" s="26" t="s">
-        <v>7313</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
@@ -49495,7 +49510,7 @@
         <v>4615</v>
       </c>
       <c r="C2353" s="26" t="s">
-        <v>7314</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
@@ -49506,7 +49521,7 @@
         <v>4617</v>
       </c>
       <c r="C2354" s="26" t="s">
-        <v>7315</v>
+        <v>7304</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
@@ -49539,7 +49554,7 @@
         <v>4623</v>
       </c>
       <c r="C2357" s="26" t="s">
-        <v>7316</v>
+        <v>7305</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
@@ -49550,7 +49565,7 @@
         <v>4625</v>
       </c>
       <c r="C2358" s="26" t="s">
-        <v>7317</v>
+        <v>7306</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
@@ -49561,7 +49576,7 @@
         <v>4627</v>
       </c>
       <c r="C2359" s="26" t="s">
-        <v>7318</v>
+        <v>7307</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
@@ -49572,7 +49587,7 @@
         <v>4491</v>
       </c>
       <c r="C2360" s="26" t="s">
-        <v>7319</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
@@ -49627,7 +49642,7 @@
         <v>4638</v>
       </c>
       <c r="C2365" s="26" t="s">
-        <v>7320</v>
+        <v>7309</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -49638,7 +49653,7 @@
         <v>4493</v>
       </c>
       <c r="C2366" s="26" t="s">
-        <v>7321</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
@@ -49649,7 +49664,7 @@
         <v>4495</v>
       </c>
       <c r="C2367" s="26" t="s">
-        <v>7322</v>
+        <v>7311</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
@@ -49660,7 +49675,7 @@
         <v>4642</v>
       </c>
       <c r="C2368" s="26" t="s">
-        <v>7325</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
@@ -49671,7 +49686,7 @@
         <v>4644</v>
       </c>
       <c r="C2369" s="26" t="s">
-        <v>7326</v>
+        <v>7313</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
@@ -49715,7 +49730,7 @@
         <v>4651</v>
       </c>
       <c r="C2373" s="26" t="s">
-        <v>7327</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
@@ -49748,7 +49763,7 @@
         <v>4655</v>
       </c>
       <c r="C2376" s="26" t="s">
-        <v>7328</v>
+        <v>7315</v>
       </c>
     </row>
     <row r="2377" spans="1:3">
@@ -49770,7 +49785,7 @@
         <v>4658</v>
       </c>
       <c r="C2378" s="26" t="s">
-        <v>7329</v>
+        <v>7316</v>
       </c>
     </row>
     <row r="2379" spans="1:3">
@@ -49781,7 +49796,7 @@
         <v>4660</v>
       </c>
       <c r="C2379" s="26" t="s">
-        <v>7330</v>
+        <v>7317</v>
       </c>
     </row>
     <row r="2380" spans="1:3">
@@ -49792,7 +49807,7 @@
         <v>2044</v>
       </c>
       <c r="C2380" s="26" t="s">
-        <v>7331</v>
+        <v>7318</v>
       </c>
     </row>
     <row r="2381" spans="1:3">
@@ -49803,7 +49818,7 @@
         <v>4663</v>
       </c>
       <c r="C2381" s="26" t="s">
-        <v>7332</v>
+        <v>7319</v>
       </c>
     </row>
     <row r="2382" spans="1:3">
@@ -49814,7 +49829,7 @@
         <v>4665</v>
       </c>
       <c r="C2382" s="26" t="s">
-        <v>7333</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="2383" spans="1:3" ht="22.5">
@@ -49825,7 +49840,7 @@
         <v>4667</v>
       </c>
       <c r="C2383" s="26" t="s">
-        <v>7334</v>
+        <v>7321</v>
       </c>
     </row>
     <row r="2384" spans="1:3">
@@ -49836,7 +49851,7 @@
         <v>4669</v>
       </c>
       <c r="C2384" s="26" t="s">
-        <v>7335</v>
+        <v>7322</v>
       </c>
     </row>
     <row r="2385" spans="1:3" ht="22.5">
@@ -49847,7 +49862,7 @@
         <v>4671</v>
       </c>
       <c r="C2385" s="26" t="s">
-        <v>7336</v>
+        <v>7323</v>
       </c>
     </row>
     <row r="2386" spans="1:3" ht="22.5">
@@ -49858,7 +49873,7 @@
         <v>4673</v>
       </c>
       <c r="C2386" s="26" t="s">
-        <v>7337</v>
+        <v>7324</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
@@ -49869,7 +49884,7 @@
         <v>4675</v>
       </c>
       <c r="C2387" s="26" t="s">
-        <v>7338</v>
+        <v>7325</v>
       </c>
     </row>
     <row r="2388" spans="1:3">
@@ -49880,7 +49895,7 @@
         <v>4677</v>
       </c>
       <c r="C2388" s="26" t="s">
-        <v>7339</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
@@ -49891,7 +49906,7 @@
         <v>4679</v>
       </c>
       <c r="C2389" s="26" t="s">
-        <v>7340</v>
+        <v>7327</v>
       </c>
     </row>
     <row r="2390" spans="1:3" ht="22.5">
@@ -49902,7 +49917,7 @@
         <v>4681</v>
       </c>
       <c r="C2390" s="26" t="s">
-        <v>7341</v>
+        <v>7328</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
@@ -49913,7 +49928,7 @@
         <v>4683</v>
       </c>
       <c r="C2391" s="26" t="s">
-        <v>7342</v>
+        <v>7329</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
@@ -49924,7 +49939,7 @@
         <v>4685</v>
       </c>
       <c r="C2392" s="27" t="s">
-        <v>7343</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
@@ -49935,7 +49950,7 @@
         <v>4687</v>
       </c>
       <c r="C2393" s="27" t="s">
-        <v>7344</v>
+        <v>7331</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
@@ -49946,7 +49961,7 @@
         <v>4689</v>
       </c>
       <c r="C2394" s="27" t="s">
-        <v>7345</v>
+        <v>7332</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
@@ -49957,7 +49972,7 @@
         <v>4691</v>
       </c>
       <c r="C2395" s="27" t="s">
-        <v>7346</v>
+        <v>7333</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
@@ -49968,7 +49983,7 @@
         <v>4693</v>
       </c>
       <c r="C2396" s="26" t="s">
-        <v>7347</v>
+        <v>7334</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
@@ -49979,7 +49994,7 @@
         <v>4695</v>
       </c>
       <c r="C2397" s="26" t="s">
-        <v>7348</v>
+        <v>7335</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
@@ -49990,7 +50005,7 @@
         <v>4697</v>
       </c>
       <c r="C2398" s="26" t="s">
-        <v>7349</v>
+        <v>7336</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
@@ -50001,7 +50016,7 @@
         <v>4699</v>
       </c>
       <c r="C2399" s="26" t="s">
-        <v>7350</v>
+        <v>7337</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
@@ -50012,7 +50027,7 @@
         <v>4701</v>
       </c>
       <c r="C2400" s="26" t="s">
-        <v>7351</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
@@ -50023,7 +50038,7 @@
         <v>4703</v>
       </c>
       <c r="C2401" s="26" t="s">
-        <v>7352</v>
+        <v>7339</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
@@ -50034,7 +50049,7 @@
         <v>4705</v>
       </c>
       <c r="C2402" s="26" t="s">
-        <v>7353</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
@@ -50045,7 +50060,7 @@
         <v>4707</v>
       </c>
       <c r="C2403" s="26" t="s">
-        <v>7314</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
@@ -50056,7 +50071,7 @@
         <v>4709</v>
       </c>
       <c r="C2404" s="26" t="s">
-        <v>7354</v>
+        <v>7341</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
@@ -50067,7 +50082,7 @@
         <v>4711</v>
       </c>
       <c r="C2405" s="26" t="s">
-        <v>7355</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
@@ -50078,7 +50093,7 @@
         <v>4713</v>
       </c>
       <c r="C2406" s="26" t="s">
-        <v>7356</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
@@ -50111,7 +50126,7 @@
         <v>4638</v>
       </c>
       <c r="C2409" s="26" t="s">
-        <v>7320</v>
+        <v>7309</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
@@ -50166,7 +50181,7 @@
         <v>4724</v>
       </c>
       <c r="C2414" s="26" t="s">
-        <v>7357</v>
+        <v>7344</v>
       </c>
     </row>
     <row r="2415" spans="1:3">
@@ -50177,7 +50192,7 @@
         <v>4726</v>
       </c>
       <c r="C2415" s="26" t="s">
-        <v>7358</v>
+        <v>7345</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
@@ -50188,7 +50203,7 @@
         <v>4581</v>
       </c>
       <c r="C2416" s="26" t="s">
-        <v>7359</v>
+        <v>7346</v>
       </c>
     </row>
     <row r="2417" spans="1:3">
@@ -50199,7 +50214,7 @@
         <v>4729</v>
       </c>
       <c r="C2417" s="26" t="s">
-        <v>7298</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="2418" spans="1:3">
@@ -50210,7 +50225,7 @@
         <v>4731</v>
       </c>
       <c r="C2418" s="26" t="s">
-        <v>7299</v>
+        <v>7294</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
@@ -50221,7 +50236,7 @@
         <v>4733</v>
       </c>
       <c r="C2419" s="26" t="s">
-        <v>7360</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
@@ -50232,7 +50247,7 @@
         <v>4735</v>
       </c>
       <c r="C2420" s="26" t="s">
-        <v>7361</v>
+        <v>7348</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
@@ -50243,7 +50258,7 @@
         <v>4737</v>
       </c>
       <c r="C2421" s="26" t="s">
-        <v>7362</v>
+        <v>7349</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
@@ -50276,7 +50291,7 @@
         <v>4743</v>
       </c>
       <c r="C2424" s="26" t="s">
-        <v>7363</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
@@ -50287,7 +50302,7 @@
         <v>4745</v>
       </c>
       <c r="C2425" s="26" t="s">
-        <v>7364</v>
+        <v>7351</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
@@ -50298,7 +50313,7 @@
         <v>1968</v>
       </c>
       <c r="C2426" s="26" t="s">
-        <v>7365</v>
+        <v>7352</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
@@ -50309,7 +50324,7 @@
         <v>1968</v>
       </c>
       <c r="C2427" s="26" t="s">
-        <v>7365</v>
+        <v>7352</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
@@ -50320,7 +50335,7 @@
         <v>4749</v>
       </c>
       <c r="C2428" s="26" t="s">
-        <v>7366</v>
+        <v>7353</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
@@ -50331,7 +50346,7 @@
         <v>4751</v>
       </c>
       <c r="C2429" s="26" t="s">
-        <v>7367</v>
+        <v>7354</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
@@ -50342,7 +50357,7 @@
         <v>4753</v>
       </c>
       <c r="C2430" s="26" t="s">
-        <v>7368</v>
+        <v>7355</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
@@ -50353,7 +50368,7 @@
         <v>4755</v>
       </c>
       <c r="C2431" s="26" t="s">
-        <v>7369</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
@@ -50364,7 +50379,7 @@
         <v>4757</v>
       </c>
       <c r="C2432" s="26" t="s">
-        <v>7370</v>
+        <v>7357</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
@@ -50375,7 +50390,7 @@
         <v>4759</v>
       </c>
       <c r="C2433" s="26" t="s">
-        <v>7371</v>
+        <v>7358</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
@@ -50386,7 +50401,7 @@
         <v>4761</v>
       </c>
       <c r="C2434" s="26" t="s">
-        <v>7372</v>
+        <v>7359</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
@@ -50397,7 +50412,7 @@
         <v>4763</v>
       </c>
       <c r="C2435" s="26" t="s">
-        <v>7373</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
@@ -50408,7 +50423,7 @@
         <v>4765</v>
       </c>
       <c r="C2436" s="26" t="s">
-        <v>7374</v>
+        <v>7361</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
@@ -50419,7 +50434,7 @@
         <v>4767</v>
       </c>
       <c r="C2437" s="26" t="s">
-        <v>7375</v>
+        <v>7362</v>
       </c>
     </row>
     <row r="2438" spans="1:3">
@@ -50430,7 +50445,7 @@
         <v>4769</v>
       </c>
       <c r="C2438" s="26" t="s">
-        <v>7376</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
@@ -50441,7 +50456,7 @@
         <v>4771</v>
       </c>
       <c r="C2439" s="26" t="s">
-        <v>7377</v>
+        <v>7364</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
@@ -50452,7 +50467,7 @@
         <v>4773</v>
       </c>
       <c r="C2440" s="26" t="s">
-        <v>7378</v>
+        <v>7365</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
@@ -50463,7 +50478,7 @@
         <v>4775</v>
       </c>
       <c r="C2441" s="26" t="s">
-        <v>7379</v>
+        <v>7366</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
@@ -50474,7 +50489,7 @@
         <v>4777</v>
       </c>
       <c r="C2442" s="26" t="s">
-        <v>7380</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
@@ -50485,7 +50500,7 @@
         <v>4779</v>
       </c>
       <c r="C2443" s="26" t="s">
-        <v>7381</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
@@ -50496,7 +50511,7 @@
         <v>4781</v>
       </c>
       <c r="C2444" s="26" t="s">
-        <v>7382</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
@@ -50507,7 +50522,7 @@
         <v>4783</v>
       </c>
       <c r="C2445" s="26" t="s">
-        <v>7383</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
@@ -50518,7 +50533,7 @@
         <v>4785</v>
       </c>
       <c r="C2446" s="26" t="s">
-        <v>7384</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
@@ -50529,7 +50544,7 @@
         <v>4787</v>
       </c>
       <c r="C2447" s="26" t="s">
-        <v>7385</v>
+        <v>7372</v>
       </c>
     </row>
     <row r="2448" spans="1:3">
@@ -50540,7 +50555,7 @@
         <v>4789</v>
       </c>
       <c r="C2448" s="26" t="s">
-        <v>7386</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
@@ -50551,7 +50566,7 @@
         <v>4638</v>
       </c>
       <c r="C2449" s="26" t="s">
-        <v>7387</v>
+        <v>7374</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
@@ -50562,7 +50577,7 @@
         <v>4792</v>
       </c>
       <c r="C2450" s="26" t="s">
-        <v>7388</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
@@ -50573,7 +50588,7 @@
         <v>4794</v>
       </c>
       <c r="C2451" s="26" t="s">
-        <v>7389</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
@@ -50584,7 +50599,7 @@
         <v>4779</v>
       </c>
       <c r="C2452" s="26" t="s">
-        <v>7381</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
@@ -50595,7 +50610,7 @@
         <v>4797</v>
       </c>
       <c r="C2453" s="26" t="s">
-        <v>7390</v>
+        <v>7377</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
@@ -50606,7 +50621,7 @@
         <v>4799</v>
       </c>
       <c r="C2454" s="26" t="s">
-        <v>7391</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
@@ -50617,7 +50632,7 @@
         <v>4801</v>
       </c>
       <c r="C2455" s="26" t="s">
-        <v>7392</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
@@ -50628,7 +50643,7 @@
         <v>4803</v>
       </c>
       <c r="C2456" s="26" t="s">
-        <v>7393</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="2457" spans="1:3">
@@ -50639,7 +50654,7 @@
         <v>4805</v>
       </c>
       <c r="C2457" s="26" t="s">
-        <v>7394</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
@@ -50650,7 +50665,7 @@
         <v>4805</v>
       </c>
       <c r="C2458" s="26" t="s">
-        <v>7394</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
@@ -50683,7 +50698,7 @@
         <v>4810</v>
       </c>
       <c r="C2461" s="26" t="s">
-        <v>7395</v>
+        <v>7382</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
@@ -50694,7 +50709,7 @@
         <v>4812</v>
       </c>
       <c r="C2462" s="26" t="s">
-        <v>7396</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
@@ -50716,7 +50731,7 @@
         <v>4816</v>
       </c>
       <c r="C2464" s="26" t="s">
-        <v>7397</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="2465" spans="1:3">
@@ -50727,7 +50742,7 @@
         <v>4818</v>
       </c>
       <c r="C2465" s="26" t="s">
-        <v>7398</v>
+        <v>7385</v>
       </c>
     </row>
     <row r="2466" spans="1:3" ht="22.5">
@@ -50738,7 +50753,7 @@
         <v>4820</v>
       </c>
       <c r="C2466" s="26" t="s">
-        <v>7399</v>
+        <v>7386</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
@@ -50749,7 +50764,7 @@
         <v>4822</v>
       </c>
       <c r="C2467" s="26" t="s">
-        <v>7400</v>
+        <v>7387</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
@@ -50760,7 +50775,7 @@
         <v>4824</v>
       </c>
       <c r="C2468" s="26" t="s">
-        <v>7401</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
@@ -50771,7 +50786,7 @@
         <v>4826</v>
       </c>
       <c r="C2469" s="26" t="s">
-        <v>7402</v>
+        <v>7389</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
@@ -50782,7 +50797,7 @@
         <v>1802</v>
       </c>
       <c r="C2470" s="26" t="s">
-        <v>7403</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -50793,7 +50808,7 @@
         <v>4829</v>
       </c>
       <c r="C2471" s="26" t="s">
-        <v>7404</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
@@ -50804,7 +50819,7 @@
         <v>4831</v>
       </c>
       <c r="C2472" s="26" t="s">
-        <v>7405</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="2473" spans="1:3">
@@ -50815,7 +50830,7 @@
         <v>4833</v>
       </c>
       <c r="C2473" s="26" t="s">
-        <v>7406</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
@@ -50826,7 +50841,7 @@
         <v>4835</v>
       </c>
       <c r="C2474" s="26" t="s">
-        <v>7407</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="2475" spans="1:3">
@@ -50837,7 +50852,7 @@
         <v>4837</v>
       </c>
       <c r="C2475" s="26" t="s">
-        <v>7408</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="2476" spans="1:3">
@@ -50848,7 +50863,7 @@
         <v>4839</v>
       </c>
       <c r="C2476" s="26" t="s">
-        <v>7409</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="2477" spans="1:3">
@@ -50859,7 +50874,7 @@
         <v>4841</v>
       </c>
       <c r="C2477" s="26" t="s">
-        <v>7410</v>
+        <v>7397</v>
       </c>
     </row>
     <row r="2478" spans="1:3">
@@ -50870,7 +50885,7 @@
         <v>4843</v>
       </c>
       <c r="C2478" s="26" t="s">
-        <v>7411</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
@@ -50881,7 +50896,7 @@
         <v>4845</v>
       </c>
       <c r="C2479" s="26" t="s">
-        <v>7412</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
@@ -50892,7 +50907,7 @@
         <v>4847</v>
       </c>
       <c r="C2480" s="26" t="s">
-        <v>7413</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
@@ -50903,7 +50918,7 @@
         <v>4849</v>
       </c>
       <c r="C2481" s="26" t="s">
-        <v>7414</v>
+        <v>7401</v>
       </c>
     </row>
     <row r="2482" spans="1:3">
@@ -50914,7 +50929,7 @@
         <v>4851</v>
       </c>
       <c r="C2482" s="26" t="s">
-        <v>7415</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
@@ -50925,7 +50940,7 @@
         <v>4853</v>
       </c>
       <c r="C2483" s="26" t="s">
-        <v>7416</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="2484" spans="1:3">
@@ -50936,7 +50951,7 @@
         <v>4855</v>
       </c>
       <c r="C2484" s="26" t="s">
-        <v>7417</v>
+        <v>7404</v>
       </c>
     </row>
     <row r="2485" spans="1:3">
@@ -50947,7 +50962,7 @@
         <v>4857</v>
       </c>
       <c r="C2485" s="26" t="s">
-        <v>7418</v>
+        <v>7405</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
@@ -50958,7 +50973,7 @@
         <v>4859</v>
       </c>
       <c r="C2486" s="26" t="s">
-        <v>7419</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="2487" spans="1:3">
@@ -50969,7 +50984,7 @@
         <v>4861</v>
       </c>
       <c r="C2487" s="26" t="s">
-        <v>7420</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="2488" spans="1:3">
@@ -50980,7 +50995,7 @@
         <v>4863</v>
       </c>
       <c r="C2488" s="26" t="s">
-        <v>7421</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="2489" spans="1:3">
@@ -50991,7 +51006,7 @@
         <v>4865</v>
       </c>
       <c r="C2489" s="26" t="s">
-        <v>7422</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="2490" spans="1:3">
@@ -51002,7 +51017,7 @@
         <v>4867</v>
       </c>
       <c r="C2490" s="26" t="s">
-        <v>7423</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
@@ -51013,7 +51028,7 @@
         <v>4869</v>
       </c>
       <c r="C2491" s="26" t="s">
-        <v>7424</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
@@ -51024,7 +51039,7 @@
         <v>4871</v>
       </c>
       <c r="C2492" s="26" t="s">
-        <v>7425</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="2493" spans="1:3">
@@ -51035,7 +51050,7 @@
         <v>4873</v>
       </c>
       <c r="C2493" s="26" t="s">
-        <v>7426</v>
+        <v>7413</v>
       </c>
     </row>
     <row r="2494" spans="1:3" ht="22.5">
@@ -51046,7 +51061,7 @@
         <v>4875</v>
       </c>
       <c r="C2494" s="26" t="s">
-        <v>7427</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="2495" spans="1:3" ht="22.5">
@@ -51057,7 +51072,7 @@
         <v>4877</v>
       </c>
       <c r="C2495" s="26" t="s">
-        <v>7428</v>
+        <v>7415</v>
       </c>
     </row>
     <row r="2496" spans="1:3">
@@ -51068,7 +51083,7 @@
         <v>4879</v>
       </c>
       <c r="C2496" s="26" t="s">
-        <v>7429</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="2497" spans="1:3">
@@ -51079,7 +51094,7 @@
         <v>4881</v>
       </c>
       <c r="C2497" s="26" t="s">
-        <v>7430</v>
+        <v>7417</v>
       </c>
     </row>
     <row r="2498" spans="1:3">
@@ -51090,7 +51105,7 @@
         <v>4883</v>
       </c>
       <c r="C2498" s="26" t="s">
-        <v>7431</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="2499" spans="1:3" ht="22.5">
@@ -51101,7 +51116,7 @@
         <v>4885</v>
       </c>
       <c r="C2499" s="26" t="s">
-        <v>7432</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="2500" spans="1:3">
@@ -51112,7 +51127,7 @@
         <v>4887</v>
       </c>
       <c r="C2500" s="26" t="s">
-        <v>7433</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="2501" spans="1:3">
@@ -51123,7 +51138,7 @@
         <v>4889</v>
       </c>
       <c r="C2501" s="26" t="s">
-        <v>7434</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="2502" spans="1:3">
@@ -51134,7 +51149,7 @@
         <v>4891</v>
       </c>
       <c r="C2502" s="26" t="s">
-        <v>7435</v>
+        <v>7422</v>
       </c>
     </row>
     <row r="2503" spans="1:3">
@@ -51145,7 +51160,7 @@
         <v>4893</v>
       </c>
       <c r="C2503" s="26" t="s">
-        <v>7436</v>
+        <v>7423</v>
       </c>
     </row>
     <row r="2504" spans="1:3">
@@ -51156,7 +51171,7 @@
         <v>4895</v>
       </c>
       <c r="C2504" s="26" t="s">
-        <v>7437</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="2505" spans="1:3" ht="22.5">
@@ -51167,7 +51182,7 @@
         <v>4897</v>
       </c>
       <c r="C2505" s="26" t="s">
-        <v>7438</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="2506" spans="1:3" ht="22.5">
@@ -51178,7 +51193,7 @@
         <v>4899</v>
       </c>
       <c r="C2506" s="26" t="s">
-        <v>7439</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="2507" spans="1:3" ht="22.5">
@@ -51189,7 +51204,7 @@
         <v>4901</v>
       </c>
       <c r="C2507" s="26" t="s">
-        <v>7440</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="2508" spans="1:3" ht="22.5">
@@ -51200,7 +51215,7 @@
         <v>4903</v>
       </c>
       <c r="C2508" s="26" t="s">
-        <v>7441</v>
+        <v>7428</v>
       </c>
     </row>
     <row r="2509" spans="1:3">
@@ -51211,7 +51226,7 @@
         <v>4905</v>
       </c>
       <c r="C2509" s="26" t="s">
-        <v>7442</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="2510" spans="1:3">
@@ -51222,7 +51237,7 @@
         <v>4907</v>
       </c>
       <c r="C2510" s="26" t="s">
-        <v>7443</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="2511" spans="1:3">
@@ -51233,7 +51248,7 @@
         <v>4909</v>
       </c>
       <c r="C2511" s="26" t="s">
-        <v>7444</v>
+        <v>7431</v>
       </c>
     </row>
     <row r="2512" spans="1:3" ht="33.75">
@@ -51244,7 +51259,7 @@
         <v>4911</v>
       </c>
       <c r="C2512" s="26" t="s">
-        <v>7445</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="2513" spans="1:3" ht="22.5">
@@ -51255,7 +51270,7 @@
         <v>4913</v>
       </c>
       <c r="C2513" s="26" t="s">
-        <v>7446</v>
+        <v>7433</v>
       </c>
     </row>
     <row r="2514" spans="1:3" ht="22.5">
@@ -51266,7 +51281,7 @@
         <v>4915</v>
       </c>
       <c r="C2514" s="26" t="s">
-        <v>7447</v>
+        <v>7434</v>
       </c>
     </row>
     <row r="2515" spans="1:3" ht="33.75">
@@ -51277,7 +51292,7 @@
         <v>4917</v>
       </c>
       <c r="C2515" s="26" t="s">
-        <v>7448</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="2516" spans="1:3" ht="33.75">
@@ -51288,7 +51303,7 @@
         <v>4919</v>
       </c>
       <c r="C2516" s="26" t="s">
-        <v>7449</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="2517" spans="1:3">
@@ -51299,7 +51314,7 @@
         <v>4921</v>
       </c>
       <c r="C2517" s="26" t="s">
-        <v>7450</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="2518" spans="1:3">
@@ -51310,7 +51325,7 @@
         <v>4923</v>
       </c>
       <c r="C2518" s="26" t="s">
-        <v>7451</v>
+        <v>7438</v>
       </c>
     </row>
     <row r="2519" spans="1:3">
@@ -51321,7 +51336,7 @@
         <v>4925</v>
       </c>
       <c r="C2519" s="26" t="s">
-        <v>7452</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="2520" spans="1:3">
@@ -51332,7 +51347,7 @@
         <v>4927</v>
       </c>
       <c r="C2520" s="26" t="s">
-        <v>7453</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="2521" spans="1:3">
@@ -51343,7 +51358,7 @@
         <v>4929</v>
       </c>
       <c r="C2521" s="26" t="s">
-        <v>7454</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="2522" spans="1:3">
@@ -51354,7 +51369,7 @@
         <v>4931</v>
       </c>
       <c r="C2522" s="26" t="s">
-        <v>7455</v>
+        <v>7442</v>
       </c>
     </row>
     <row r="2523" spans="1:3">
@@ -51365,7 +51380,7 @@
         <v>4933</v>
       </c>
       <c r="C2523" s="26" t="s">
-        <v>7456</v>
+        <v>7443</v>
       </c>
     </row>
     <row r="2524" spans="1:3">
@@ -51376,7 +51391,7 @@
         <v>4935</v>
       </c>
       <c r="C2524" s="26" t="s">
-        <v>7457</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="2525" spans="1:3">
@@ -51398,7 +51413,7 @@
         <v>4940</v>
       </c>
       <c r="C2526" s="26" t="s">
-        <v>7458</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="2527" spans="1:3">
@@ -51409,7 +51424,7 @@
         <v>4942</v>
       </c>
       <c r="C2527" s="26" t="s">
-        <v>7459</v>
+        <v>7446</v>
       </c>
     </row>
     <row r="2528" spans="1:3">
@@ -51442,7 +51457,7 @@
         <v>4948</v>
       </c>
       <c r="C2530" s="26" t="s">
-        <v>7460</v>
+        <v>7447</v>
       </c>
     </row>
     <row r="2531" spans="1:3">
@@ -51453,7 +51468,7 @@
         <v>4950</v>
       </c>
       <c r="C2531" s="26" t="s">
-        <v>7461</v>
+        <v>7448</v>
       </c>
     </row>
     <row r="2532" spans="1:3">
@@ -51464,7 +51479,7 @@
         <v>4952</v>
       </c>
       <c r="C2532" s="26" t="s">
-        <v>7462</v>
+        <v>7449</v>
       </c>
     </row>
     <row r="2533" spans="1:3">
@@ -51475,7 +51490,7 @@
         <v>4954</v>
       </c>
       <c r="C2533" s="26" t="s">
-        <v>7463</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="2534" spans="1:3">
@@ -51486,7 +51501,7 @@
         <v>4956</v>
       </c>
       <c r="C2534" s="26" t="s">
-        <v>7464</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="2535" spans="1:3">
@@ -51497,7 +51512,7 @@
         <v>4958</v>
       </c>
       <c r="C2535" s="26" t="s">
-        <v>7465</v>
+        <v>7452</v>
       </c>
     </row>
     <row r="2536" spans="1:3">
@@ -51508,7 +51523,7 @@
         <v>4960</v>
       </c>
       <c r="C2536" s="26" t="s">
-        <v>7466</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="2537" spans="1:3">
@@ -51519,7 +51534,7 @@
         <v>4962</v>
       </c>
       <c r="C2537" s="26" t="s">
-        <v>7467</v>
+        <v>7454</v>
       </c>
     </row>
     <row r="2538" spans="1:3">
@@ -51530,7 +51545,7 @@
         <v>4964</v>
       </c>
       <c r="C2538" s="26" t="s">
-        <v>7468</v>
+        <v>7455</v>
       </c>
     </row>
     <row r="2539" spans="1:3">
@@ -51552,7 +51567,7 @@
         <v>4969</v>
       </c>
       <c r="C2540" s="26" t="s">
-        <v>7469</v>
+        <v>7456</v>
       </c>
     </row>
     <row r="2541" spans="1:3">
@@ -51563,7 +51578,7 @@
         <v>4971</v>
       </c>
       <c r="C2541" s="26" t="s">
-        <v>7470</v>
+        <v>7457</v>
       </c>
     </row>
     <row r="2542" spans="1:3">
@@ -51574,7 +51589,7 @@
         <v>4973</v>
       </c>
       <c r="C2542" s="26" t="s">
-        <v>7471</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="2543" spans="1:3">
@@ -51585,7 +51600,7 @@
         <v>4975</v>
       </c>
       <c r="C2543" s="26" t="s">
-        <v>7472</v>
+        <v>7459</v>
       </c>
     </row>
     <row r="2544" spans="1:3">
@@ -51596,7 +51611,7 @@
         <v>4977</v>
       </c>
       <c r="C2544" s="26" t="s">
-        <v>7473</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="2545" spans="1:3">
@@ -51607,7 +51622,7 @@
         <v>4979</v>
       </c>
       <c r="C2545" s="26" t="s">
-        <v>7474</v>
+        <v>7461</v>
       </c>
     </row>
     <row r="2546" spans="1:3">
@@ -51618,7 +51633,7 @@
         <v>4981</v>
       </c>
       <c r="C2546" s="26" t="s">
-        <v>7475</v>
+        <v>7462</v>
       </c>
     </row>
     <row r="2547" spans="1:3">
@@ -51651,7 +51666,7 @@
         <v>4988</v>
       </c>
       <c r="C2549" s="26" t="s">
-        <v>7476</v>
+        <v>7463</v>
       </c>
     </row>
     <row r="2550" spans="1:3">
@@ -51662,7 +51677,7 @@
         <v>280</v>
       </c>
       <c r="C2550" s="26" t="s">
-        <v>7477</v>
+        <v>7464</v>
       </c>
     </row>
     <row r="2551" spans="1:3">
@@ -51673,7 +51688,7 @@
         <v>4991</v>
       </c>
       <c r="C2551" s="26" t="s">
-        <v>7478</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="2552" spans="1:3">
@@ -51695,7 +51710,7 @@
         <v>4995</v>
       </c>
       <c r="C2553" s="26" t="s">
-        <v>7479</v>
+        <v>7466</v>
       </c>
     </row>
     <row r="2554" spans="1:3">
@@ -51717,7 +51732,7 @@
         <v>4998</v>
       </c>
       <c r="C2555" s="26" t="s">
-        <v>7501</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="2556" spans="1:3">
@@ -51728,7 +51743,7 @@
         <v>5000</v>
       </c>
       <c r="C2556" s="26" t="s">
-        <v>7480</v>
+        <v>7467</v>
       </c>
     </row>
     <row r="2557" spans="1:3">
@@ -51739,7 +51754,7 @@
         <v>5002</v>
       </c>
       <c r="C2557" s="26" t="s">
-        <v>7481</v>
+        <v>7468</v>
       </c>
     </row>
     <row r="2558" spans="1:3">
@@ -51750,7 +51765,7 @@
         <v>5004</v>
       </c>
       <c r="C2558" s="26" t="s">
-        <v>7482</v>
+        <v>7469</v>
       </c>
     </row>
     <row r="2559" spans="1:3">
@@ -51761,7 +51776,7 @@
         <v>5006</v>
       </c>
       <c r="C2559" s="26" t="s">
-        <v>7483</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="2560" spans="1:3">
@@ -51772,7 +51787,7 @@
         <v>5008</v>
       </c>
       <c r="C2560" s="26" t="s">
-        <v>7484</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="2561" spans="1:3">
@@ -51783,7 +51798,7 @@
         <v>5010</v>
       </c>
       <c r="C2561" s="26" t="s">
-        <v>7485</v>
+        <v>7472</v>
       </c>
     </row>
     <row r="2562" spans="1:3">
@@ -51794,7 +51809,7 @@
         <v>5012</v>
       </c>
       <c r="C2562" s="26" t="s">
-        <v>7486</v>
+        <v>7473</v>
       </c>
     </row>
     <row r="2563" spans="1:3">
@@ -51805,7 +51820,7 @@
         <v>5014</v>
       </c>
       <c r="C2563" s="26" t="s">
-        <v>7487</v>
+        <v>7474</v>
       </c>
     </row>
     <row r="2564" spans="1:3">
@@ -51816,7 +51831,7 @@
         <v>5016</v>
       </c>
       <c r="C2564" s="26" t="s">
-        <v>7488</v>
+        <v>7475</v>
       </c>
     </row>
     <row r="2565" spans="1:3">
@@ -51827,7 +51842,7 @@
         <v>5018</v>
       </c>
       <c r="C2565" s="26" t="s">
-        <v>7489</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="2566" spans="1:3">
@@ -51838,7 +51853,7 @@
         <v>5020</v>
       </c>
       <c r="C2566" s="26" t="s">
-        <v>7490</v>
+        <v>7477</v>
       </c>
     </row>
     <row r="2567" spans="1:3">
@@ -51849,7 +51864,7 @@
         <v>5022</v>
       </c>
       <c r="C2567" s="26" t="s">
-        <v>7491</v>
+        <v>7478</v>
       </c>
     </row>
     <row r="2568" spans="1:3">
@@ -51860,7 +51875,7 @@
         <v>5024</v>
       </c>
       <c r="C2568" s="26" t="s">
-        <v>7492</v>
+        <v>7479</v>
       </c>
     </row>
     <row r="2569" spans="1:3">
@@ -51871,7 +51886,7 @@
         <v>5026</v>
       </c>
       <c r="C2569" s="26" t="s">
-        <v>7493</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="2570" spans="1:3">
@@ -51882,7 +51897,7 @@
         <v>5028</v>
       </c>
       <c r="C2570" s="26" t="s">
-        <v>7494</v>
+        <v>7481</v>
       </c>
     </row>
     <row r="2571" spans="1:3">
@@ -51904,7 +51919,7 @@
         <v>5031</v>
       </c>
       <c r="C2572" s="26" t="s">
-        <v>7495</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="2573" spans="1:3">
@@ -51915,7 +51930,7 @@
         <v>5033</v>
       </c>
       <c r="C2573" s="26" t="s">
-        <v>7496</v>
+        <v>7483</v>
       </c>
     </row>
     <row r="2574" spans="1:3">
@@ -51926,7 +51941,7 @@
         <v>5035</v>
       </c>
       <c r="C2574" s="26" t="s">
-        <v>7497</v>
+        <v>7484</v>
       </c>
     </row>
     <row r="2575" spans="1:3">
@@ -51937,7 +51952,7 @@
         <v>5037</v>
       </c>
       <c r="C2575" s="26" t="s">
-        <v>7498</v>
+        <v>7485</v>
       </c>
     </row>
     <row r="2576" spans="1:3">
@@ -51948,7 +51963,7 @@
         <v>5039</v>
       </c>
       <c r="C2576" s="26" t="s">
-        <v>7499</v>
+        <v>7486</v>
       </c>
     </row>
     <row r="2577" spans="1:3">
@@ -51992,7 +52007,7 @@
         <v>5048</v>
       </c>
       <c r="C2580" s="26" t="s">
-        <v>7500</v>
+        <v>7487</v>
       </c>
     </row>
     <row r="2581" spans="1:3">
@@ -52003,7 +52018,7 @@
         <v>5050</v>
       </c>
       <c r="C2581" s="26" t="s">
-        <v>7502</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="2582" spans="1:3">
@@ -52014,7 +52029,7 @@
         <v>5052</v>
       </c>
       <c r="C2582" s="26" t="s">
-        <v>7503</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="2583" spans="1:3">
@@ -52047,7 +52062,7 @@
         <v>5058</v>
       </c>
       <c r="C2585" s="26" t="s">
-        <v>7504</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="2586" spans="1:3">
@@ -52058,7 +52073,7 @@
         <v>5060</v>
       </c>
       <c r="C2586" s="26" t="s">
-        <v>7505</v>
+        <v>7492</v>
       </c>
     </row>
     <row r="2587" spans="1:3">
@@ -52080,7 +52095,7 @@
         <v>2080</v>
       </c>
       <c r="C2588" s="26" t="s">
-        <v>7506</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="2589" spans="1:3">
@@ -52091,7 +52106,7 @@
         <v>4845</v>
       </c>
       <c r="C2589" s="26" t="s">
-        <v>7412</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="2590" spans="1:3">
@@ -52102,7 +52117,7 @@
         <v>5065</v>
       </c>
       <c r="C2590" s="26" t="s">
-        <v>7507</v>
+        <v>7494</v>
       </c>
     </row>
     <row r="2591" spans="1:3">
@@ -52113,7 +52128,7 @@
         <v>5067</v>
       </c>
       <c r="C2591" s="26" t="s">
-        <v>7508</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="2592" spans="1:3">
@@ -52124,7 +52139,7 @@
         <v>5069</v>
       </c>
       <c r="C2592" s="26" t="s">
-        <v>7509</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="2593" spans="1:3">
@@ -52135,7 +52150,7 @@
         <v>5071</v>
       </c>
       <c r="C2593" s="26" t="s">
-        <v>7510</v>
+        <v>7497</v>
       </c>
     </row>
     <row r="2594" spans="1:3">
@@ -52146,7 +52161,7 @@
         <v>5073</v>
       </c>
       <c r="C2594" s="26" t="s">
-        <v>7511</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="2595" spans="1:3">
@@ -52157,7 +52172,7 @@
         <v>5075</v>
       </c>
       <c r="C2595" s="26" t="s">
-        <v>7512</v>
+        <v>7499</v>
       </c>
     </row>
     <row r="2596" spans="1:3">
@@ -52168,7 +52183,7 @@
         <v>5077</v>
       </c>
       <c r="C2596" s="26" t="s">
-        <v>7513</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="2597" spans="1:3">
@@ -52179,7 +52194,7 @@
         <v>5079</v>
       </c>
       <c r="C2597" s="26" t="s">
-        <v>7514</v>
+        <v>7501</v>
       </c>
     </row>
     <row r="2598" spans="1:3">
@@ -52190,7 +52205,7 @@
         <v>5081</v>
       </c>
       <c r="C2598" s="26" t="s">
-        <v>7515</v>
+        <v>7502</v>
       </c>
     </row>
     <row r="2599" spans="1:3">
@@ -52201,7 +52216,7 @@
         <v>4962</v>
       </c>
       <c r="C2599" s="26" t="s">
-        <v>7467</v>
+        <v>7454</v>
       </c>
     </row>
     <row r="2600" spans="1:3">
@@ -52212,7 +52227,7 @@
         <v>4964</v>
       </c>
       <c r="C2600" s="26" t="s">
-        <v>7468</v>
+        <v>7455</v>
       </c>
     </row>
     <row r="2601" spans="1:3">
@@ -52223,7 +52238,7 @@
         <v>5085</v>
       </c>
       <c r="C2601" s="26" t="s">
-        <v>7516</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="2602" spans="1:3">
@@ -52234,7 +52249,7 @@
         <v>5087</v>
       </c>
       <c r="C2602" s="26" t="s">
-        <v>7517</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="2603" spans="1:3">
@@ -52256,7 +52271,7 @@
         <v>5090</v>
       </c>
       <c r="C2604" s="26" t="s">
-        <v>7518</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="2605" spans="1:3" ht="30">
@@ -52267,7 +52282,7 @@
         <v>5092</v>
       </c>
       <c r="C2605" s="26" t="s">
-        <v>7519</v>
+        <v>7506</v>
       </c>
     </row>
     <row r="2606" spans="1:3">
@@ -52278,7 +52293,7 @@
         <v>5094</v>
       </c>
       <c r="C2606" s="26" t="s">
-        <v>7520</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="2607" spans="1:3">
@@ -52289,7 +52304,7 @@
         <v>5096</v>
       </c>
       <c r="C2607" s="26" t="s">
-        <v>7521</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="2608" spans="1:3">
@@ -52300,7 +52315,7 @@
         <v>5098</v>
       </c>
       <c r="C2608" s="26" t="s">
-        <v>7522</v>
+        <v>7509</v>
       </c>
     </row>
     <row r="2609" spans="1:3">
@@ -52311,7 +52326,7 @@
         <v>5100</v>
       </c>
       <c r="C2609" s="26" t="s">
-        <v>7523</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="2610" spans="1:3">
@@ -52322,7 +52337,7 @@
         <v>5102</v>
       </c>
       <c r="C2610" s="26" t="s">
-        <v>7524</v>
+        <v>7511</v>
       </c>
     </row>
     <row r="2611" spans="1:3" ht="22.5">
@@ -52333,7 +52348,7 @@
         <v>5104</v>
       </c>
       <c r="C2611" s="26" t="s">
-        <v>7525</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="2612" spans="1:3">
@@ -52344,7 +52359,7 @@
         <v>5106</v>
       </c>
       <c r="C2612" s="26" t="s">
-        <v>7526</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="2613" spans="1:3">
@@ -52355,7 +52370,7 @@
         <v>5108</v>
       </c>
       <c r="C2613" s="26" t="s">
-        <v>7527</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="2614" spans="1:3" ht="56.25">
@@ -52366,7 +52381,7 @@
         <v>5110</v>
       </c>
       <c r="C2614" s="26" t="s">
-        <v>7528</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="2615" spans="1:3">
@@ -52377,7 +52392,7 @@
         <v>5112</v>
       </c>
       <c r="C2615" s="26" t="s">
-        <v>7529</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="2616" spans="1:3">
@@ -52388,7 +52403,7 @@
         <v>5114</v>
       </c>
       <c r="C2616" s="26" t="s">
-        <v>7530</v>
+        <v>7517</v>
       </c>
     </row>
     <row r="2617" spans="1:3">
@@ -52399,7 +52414,7 @@
         <v>5116</v>
       </c>
       <c r="C2617" s="26" t="s">
-        <v>7531</v>
+        <v>7518</v>
       </c>
     </row>
     <row r="2618" spans="1:3">
@@ -52410,7 +52425,7 @@
         <v>5118</v>
       </c>
       <c r="C2618" s="26" t="s">
-        <v>7532</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="2619" spans="1:3" ht="33.75">
@@ -52421,7 +52436,7 @@
         <v>5120</v>
       </c>
       <c r="C2619" s="26" t="s">
-        <v>7533</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="2620" spans="1:3">
@@ -52432,7 +52447,7 @@
         <v>5122</v>
       </c>
       <c r="C2620" s="26" t="s">
-        <v>7534</v>
+        <v>7521</v>
       </c>
     </row>
     <row r="2621" spans="1:3">
@@ -52443,7 +52458,7 @@
         <v>5124</v>
       </c>
       <c r="C2621" s="26" t="s">
-        <v>7535</v>
+        <v>7522</v>
       </c>
     </row>
     <row r="2622" spans="1:3">
@@ -52454,7 +52469,7 @@
         <v>5126</v>
       </c>
       <c r="C2622" s="26" t="s">
-        <v>7536</v>
+        <v>7523</v>
       </c>
     </row>
     <row r="2623" spans="1:3" ht="22.5">
@@ -52465,7 +52480,7 @@
         <v>5128</v>
       </c>
       <c r="C2623" s="26" t="s">
-        <v>7537</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="2624" spans="1:3">
@@ -52476,7 +52491,7 @@
         <v>5130</v>
       </c>
       <c r="C2624" s="26" t="s">
-        <v>7538</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="2625" spans="1:3" ht="22.5">
@@ -52487,7 +52502,7 @@
         <v>5132</v>
       </c>
       <c r="C2625" s="26" t="s">
-        <v>7539</v>
+        <v>7526</v>
       </c>
     </row>
     <row r="2626" spans="1:3">
@@ -52498,7 +52513,7 @@
         <v>5134</v>
       </c>
       <c r="C2626" s="26" t="s">
-        <v>7540</v>
+        <v>7527</v>
       </c>
     </row>
     <row r="2627" spans="1:3">
@@ -52509,7 +52524,7 @@
         <v>5136</v>
       </c>
       <c r="C2627" s="26" t="s">
-        <v>7541</v>
+        <v>7528</v>
       </c>
     </row>
     <row r="2628" spans="1:3">
@@ -52520,7 +52535,7 @@
         <v>5138</v>
       </c>
       <c r="C2628" s="26" t="s">
-        <v>7542</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="2629" spans="1:3">
@@ -52531,7 +52546,7 @@
         <v>5140</v>
       </c>
       <c r="C2629" s="26" t="s">
-        <v>7543</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="2630" spans="1:3">
@@ -52542,7 +52557,7 @@
         <v>5142</v>
       </c>
       <c r="C2630" s="26" t="s">
-        <v>7544</v>
+        <v>7531</v>
       </c>
     </row>
     <row r="2631" spans="1:3">
@@ -52553,7 +52568,7 @@
         <v>5144</v>
       </c>
       <c r="C2631" s="26" t="s">
-        <v>7545</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="2632" spans="1:3">
@@ -52564,7 +52579,7 @@
         <v>5146</v>
       </c>
       <c r="C2632" s="26" t="s">
-        <v>7546</v>
+        <v>7533</v>
       </c>
     </row>
     <row r="2633" spans="1:3">
@@ -52575,7 +52590,7 @@
         <v>5148</v>
       </c>
       <c r="C2633" s="26" t="s">
-        <v>7547</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="2634" spans="1:3">
@@ -52586,7 +52601,7 @@
         <v>5150</v>
       </c>
       <c r="C2634" s="26" t="s">
-        <v>7548</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="2635" spans="1:3">
@@ -52597,7 +52612,7 @@
         <v>5152</v>
       </c>
       <c r="C2635" s="26" t="s">
-        <v>7549</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="2636" spans="1:3">
@@ -52608,7 +52623,7 @@
         <v>5154</v>
       </c>
       <c r="C2636" s="26" t="s">
-        <v>7550</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="2637" spans="1:3" ht="22.5">
@@ -52619,7 +52634,7 @@
         <v>5156</v>
       </c>
       <c r="C2637" s="26" t="s">
-        <v>7551</v>
+        <v>7538</v>
       </c>
     </row>
     <row r="2638" spans="1:3">
@@ -52641,7 +52656,7 @@
         <v>5161</v>
       </c>
       <c r="C2639" s="26" t="s">
-        <v>7552</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="2640" spans="1:3">
@@ -52652,7 +52667,7 @@
         <v>5163</v>
       </c>
       <c r="C2640" s="26" t="s">
-        <v>7553</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="2641" spans="1:3">
@@ -52663,7 +52678,7 @@
         <v>5165</v>
       </c>
       <c r="C2641" s="26" t="s">
-        <v>7554</v>
+        <v>7541</v>
       </c>
     </row>
     <row r="2642" spans="1:3">
@@ -52674,7 +52689,7 @@
         <v>5167</v>
       </c>
       <c r="C2642" s="26" t="s">
-        <v>7555</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="2643" spans="1:3">
@@ -52685,7 +52700,7 @@
         <v>5169</v>
       </c>
       <c r="C2643" s="26" t="s">
-        <v>7556</v>
+        <v>7543</v>
       </c>
     </row>
     <row r="2644" spans="1:3">
@@ -52696,7 +52711,7 @@
         <v>5171</v>
       </c>
       <c r="C2644" s="26" t="s">
-        <v>7557</v>
+        <v>7544</v>
       </c>
     </row>
     <row r="2645" spans="1:3">
@@ -52707,7 +52722,7 @@
         <v>5173</v>
       </c>
       <c r="C2645" s="26" t="s">
-        <v>7558</v>
+        <v>7545</v>
       </c>
     </row>
     <row r="2646" spans="1:3">
@@ -52718,7 +52733,7 @@
         <v>5175</v>
       </c>
       <c r="C2646" s="26" t="s">
-        <v>7559</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="2647" spans="1:3">
@@ -52729,7 +52744,7 @@
         <v>5177</v>
       </c>
       <c r="C2647" s="26" t="s">
-        <v>7560</v>
+        <v>7547</v>
       </c>
     </row>
     <row r="2648" spans="1:3">
@@ -52740,7 +52755,7 @@
         <v>4004</v>
       </c>
       <c r="C2648" s="26" t="s">
-        <v>7561</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="2649" spans="1:3">
@@ -52751,7 +52766,7 @@
         <v>5180</v>
       </c>
       <c r="C2649" s="26" t="s">
-        <v>7562</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="2650" spans="1:3">
@@ -52762,7 +52777,7 @@
         <v>5182</v>
       </c>
       <c r="C2650" s="26" t="s">
-        <v>7563</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="2651" spans="1:3">
@@ -52773,7 +52788,7 @@
         <v>5184</v>
       </c>
       <c r="C2651" s="26" t="s">
-        <v>7564</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="2652" spans="1:3">
@@ -52784,7 +52799,7 @@
         <v>5186</v>
       </c>
       <c r="C2652" s="26" t="s">
-        <v>7565</v>
+        <v>7552</v>
       </c>
     </row>
     <row r="2653" spans="1:3">
@@ -52795,7 +52810,7 @@
         <v>124</v>
       </c>
       <c r="C2653" s="26" t="s">
-        <v>7566</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="2654" spans="1:3">
@@ -52806,7 +52821,7 @@
         <v>5189</v>
       </c>
       <c r="C2654" s="26" t="s">
-        <v>7567</v>
+        <v>7554</v>
       </c>
     </row>
     <row r="2655" spans="1:3" ht="27">
@@ -52817,7 +52832,7 @@
         <v>5191</v>
       </c>
       <c r="C2655" s="29" t="s">
-        <v>7568</v>
+        <v>7555</v>
       </c>
     </row>
     <row r="2656" spans="1:3">
@@ -52839,7 +52854,7 @@
         <v>5196</v>
       </c>
       <c r="C2657" s="26" t="s">
-        <v>7569</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="2658" spans="1:3">
@@ -52850,7 +52865,7 @@
         <v>5198</v>
       </c>
       <c r="C2658" s="26" t="s">
-        <v>7570</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="2659" spans="1:3" ht="33.75">
@@ -52861,7 +52876,7 @@
         <v>5200</v>
       </c>
       <c r="C2659" s="26" t="s">
-        <v>7571</v>
+        <v>7558</v>
       </c>
     </row>
     <row r="2660" spans="1:3" ht="33.75">
@@ -52872,7 +52887,7 @@
         <v>5202</v>
       </c>
       <c r="C2660" s="26" t="s">
-        <v>7572</v>
+        <v>7559</v>
       </c>
     </row>
     <row r="2661" spans="1:3" ht="45">
@@ -52883,7 +52898,7 @@
         <v>5204</v>
       </c>
       <c r="C2661" s="26" t="s">
-        <v>7573</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="2662" spans="1:3">
@@ -52894,7 +52909,7 @@
         <v>5206</v>
       </c>
       <c r="C2662" s="26" t="s">
-        <v>7574</v>
+        <v>7561</v>
       </c>
     </row>
     <row r="2663" spans="1:3" ht="56.25">
@@ -52905,7 +52920,7 @@
         <v>5208</v>
       </c>
       <c r="C2663" s="26" t="s">
-        <v>7573</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="2664" spans="1:3" ht="22.5">
@@ -52916,7 +52931,7 @@
         <v>5210</v>
       </c>
       <c r="C2664" s="26" t="s">
-        <v>7575</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="2665" spans="1:3">
@@ -52927,7 +52942,7 @@
         <v>5212</v>
       </c>
       <c r="C2665" s="26" t="s">
-        <v>7576</v>
+        <v>7563</v>
       </c>
     </row>
     <row r="2666" spans="1:3" ht="33.75">
@@ -52938,7 +52953,7 @@
         <v>5214</v>
       </c>
       <c r="C2666" s="26" t="s">
-        <v>7577</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="2667" spans="1:3">
@@ -52949,7 +52964,7 @@
         <v>5216</v>
       </c>
       <c r="C2667" s="26" t="s">
-        <v>7578</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="2668" spans="1:3">
@@ -52960,7 +52975,7 @@
         <v>5218</v>
       </c>
       <c r="C2668" s="26" t="s">
-        <v>7579</v>
+        <v>7566</v>
       </c>
     </row>
     <row r="2669" spans="1:3">
@@ -52971,7 +52986,7 @@
         <v>5220</v>
       </c>
       <c r="C2669" s="26" t="s">
-        <v>7580</v>
+        <v>7567</v>
       </c>
     </row>
     <row r="2670" spans="1:3">
@@ -52982,7 +52997,7 @@
         <v>5222</v>
       </c>
       <c r="C2670" s="26" t="s">
-        <v>7581</v>
+        <v>7568</v>
       </c>
     </row>
     <row r="2671" spans="1:3">
@@ -52993,7 +53008,7 @@
         <v>5224</v>
       </c>
       <c r="C2671" s="26" t="s">
-        <v>7561</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="2672" spans="1:3">
@@ -53004,7 +53019,7 @@
         <v>5226</v>
       </c>
       <c r="C2672" s="26" t="s">
-        <v>7582</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="2673" spans="1:3">
@@ -53015,7 +53030,7 @@
         <v>5228</v>
       </c>
       <c r="C2673" s="26" t="s">
-        <v>7583</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="2674" spans="1:3">
@@ -53026,7 +53041,7 @@
         <v>5230</v>
       </c>
       <c r="C2674" s="26" t="s">
-        <v>7584</v>
+        <v>7571</v>
       </c>
     </row>
     <row r="2675" spans="1:3" ht="22.5">
@@ -53037,7 +53052,7 @@
         <v>5232</v>
       </c>
       <c r="C2675" s="26" t="s">
-        <v>7585</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="2676" spans="1:3">
@@ -53059,7 +53074,7 @@
         <v>3931</v>
       </c>
       <c r="C2677" s="26" t="s">
-        <v>7586</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="2678" spans="1:3">
@@ -53070,7 +53085,7 @@
         <v>5236</v>
       </c>
       <c r="C2678" s="26" t="s">
-        <v>7587</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="2679" spans="1:3">
@@ -53081,7 +53096,7 @@
         <v>5238</v>
       </c>
       <c r="C2679" s="26" t="s">
-        <v>7588</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="2680" spans="1:3">
@@ -53092,7 +53107,7 @@
         <v>5240</v>
       </c>
       <c r="C2680" s="26" t="s">
-        <v>7589</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="2681" spans="1:3">
@@ -53103,7 +53118,7 @@
         <v>5242</v>
       </c>
       <c r="C2681" s="26" t="s">
-        <v>7590</v>
+        <v>7577</v>
       </c>
     </row>
     <row r="2682" spans="1:3">
@@ -53114,7 +53129,7 @@
         <v>5244</v>
       </c>
       <c r="C2682" s="26" t="s">
-        <v>7591</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="2683" spans="1:3">
@@ -53125,7 +53140,7 @@
         <v>5246</v>
       </c>
       <c r="C2683" s="26" t="s">
-        <v>7592</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="2684" spans="1:3">
@@ -53136,7 +53151,7 @@
         <v>5248</v>
       </c>
       <c r="C2684" s="26" t="s">
-        <v>7593</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="2685" spans="1:3">
@@ -53147,7 +53162,7 @@
         <v>5250</v>
       </c>
       <c r="C2685" s="26" t="s">
-        <v>7594</v>
+        <v>7581</v>
       </c>
     </row>
     <row r="2686" spans="1:3">
@@ -53158,7 +53173,7 @@
         <v>5252</v>
       </c>
       <c r="C2686" s="26" t="s">
-        <v>7595</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="2687" spans="1:3">
@@ -53169,7 +53184,7 @@
         <v>5254</v>
       </c>
       <c r="C2687" s="26" t="s">
-        <v>7596</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="2688" spans="1:3">
@@ -53180,7 +53195,7 @@
         <v>5256</v>
       </c>
       <c r="C2688" s="26" t="s">
-        <v>7597</v>
+        <v>7584</v>
       </c>
     </row>
     <row r="2689" spans="1:3">
@@ -53191,7 +53206,7 @@
         <v>5258</v>
       </c>
       <c r="C2689" s="26" t="s">
-        <v>7598</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="2690" spans="1:3">
@@ -53213,7 +53228,7 @@
         <v>5261</v>
       </c>
       <c r="C2691" s="26" t="s">
-        <v>7599</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="2692" spans="1:3">
@@ -53224,7 +53239,7 @@
         <v>5263</v>
       </c>
       <c r="C2692" s="26" t="s">
-        <v>7600</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="2693" spans="1:3">
@@ -53235,7 +53250,7 @@
         <v>5265</v>
       </c>
       <c r="C2693" s="26" t="s">
-        <v>7601</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="2694" spans="1:3">
@@ -53246,7 +53261,7 @@
         <v>5267</v>
       </c>
       <c r="C2694" s="26" t="s">
-        <v>7602</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="2695" spans="1:3">
@@ -53257,7 +53272,7 @@
         <v>5269</v>
       </c>
       <c r="C2695" s="26" t="s">
-        <v>7603</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="2696" spans="1:3">
@@ -53268,7 +53283,7 @@
         <v>5271</v>
       </c>
       <c r="C2696" s="26" t="s">
-        <v>7604</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="2697" spans="1:3">
@@ -53279,7 +53294,7 @@
         <v>5273</v>
       </c>
       <c r="C2697" s="26" t="s">
-        <v>7605</v>
+        <v>7592</v>
       </c>
     </row>
     <row r="2698" spans="1:3">
@@ -53290,7 +53305,7 @@
         <v>142</v>
       </c>
       <c r="C2698" s="26" t="s">
-        <v>7602</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="2699" spans="1:3">
@@ -53301,7 +53316,7 @@
         <v>5276</v>
       </c>
       <c r="C2699" s="26" t="s">
-        <v>7606</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="2700" spans="1:3">
@@ -53312,7 +53327,7 @@
         <v>5278</v>
       </c>
       <c r="C2700" s="26" t="s">
-        <v>7607</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="2701" spans="1:3">
@@ -53323,7 +53338,7 @@
         <v>5280</v>
       </c>
       <c r="C2701" s="26" t="s">
-        <v>7608</v>
+        <v>7595</v>
       </c>
     </row>
   </sheetData>
